--- a/O2S_QuanLyHocVien/Templates/BienLaiThuTien_NopTien.xlsx
+++ b/O2S_QuanLyHocVien/Templates/BienLaiThuTien_NopTien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,12 +342,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -397,6 +406,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,29 +463,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -444,9 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,10 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -781,96 +814,96 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
     </row>
     <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="17" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="17" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
@@ -895,30 +928,30 @@
       <c r="D6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
       <c r="W6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
       <c r="AB6" s="7" t="s">
         <v>5</v>
       </c>
@@ -931,21 +964,21 @@
       <c r="D7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -1044,254 +1077,242 @@
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="21" t="s">
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="30" t="s">
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-    </row>
-    <row r="16" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2" t="s">
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+    </row>
+    <row r="17" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="33" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="16"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-    </row>
-    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="O17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="34"/>
       <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
-    </row>
-    <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T18" s="32" t="s">
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+    </row>
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="O18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+    </row>
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-    </row>
-    <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="V19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="V20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1321,213 +1342,237 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="U23" s="1" t="s">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-    </row>
-    <row r="24" spans="2:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:31" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+    </row>
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+    </row>
+    <row r="27" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="U27" s="31" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="U28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-    </row>
-    <row r="28" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+    </row>
+    <row r="29" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="17" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-    </row>
-    <row r="29" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+    </row>
+    <row r="30" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="17" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-    </row>
-    <row r="30" spans="2:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-    </row>
-    <row r="31" spans="2:31" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="I31" s="18" t="s">
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+    </row>
+    <row r="31" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+    </row>
+    <row r="32" spans="1:34" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="32" t="s">
         <v>3</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="W31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="X31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-    </row>
-    <row r="32" spans="2:31" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="I32" s="32" t="s">
-        <v>37</v>
       </c>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
@@ -1541,387 +1586,447 @@
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="32"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
+      <c r="W32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="1:34" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="I33" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-    </row>
-    <row r="33" spans="1:34" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AH34" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="1:34" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AH35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="21" t="s">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="22" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="21" t="s">
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-    </row>
-    <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+    </row>
+    <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="27" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="30" t="s">
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-    </row>
-    <row r="41" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="2" t="s">
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+    </row>
+    <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+    </row>
+    <row r="43" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="33" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="16"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="14" t="s">
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="33" t="s">
+      <c r="P43" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="14" t="s">
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Z41" s="33" t="s">
+      <c r="Z43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-    </row>
-    <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+    </row>
+    <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F44" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="O42" s="14" t="s">
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="O44" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Q42" s="34" t="s">
+      <c r="Q44" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-    </row>
-    <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T43" s="32" t="s">
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="41"/>
+    </row>
+    <row r="45" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T45" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-    </row>
-    <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+    </row>
+    <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7" t="s">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="V44" s="7" t="s">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="V46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7" t="s">
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U48" s="1" t="s">
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+    </row>
+    <row r="50" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U50" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="T43:AE43"/>
-    <mergeCell ref="I32:U32"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:R39"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="Y39:AE39"/>
+    <mergeCell ref="T45:AE45"/>
+    <mergeCell ref="I33:U33"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:R40"/>
-    <mergeCell ref="S40:X40"/>
     <mergeCell ref="Y40:AE40"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="Q42:AE42"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="P41:V41"/>
-    <mergeCell ref="Z41:AE41"/>
-    <mergeCell ref="T18:AE18"/>
-    <mergeCell ref="U27:AE27"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="P16:V16"/>
-    <mergeCell ref="Z16:AE16"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="Y41:AE41"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="Q44:AE44"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="P43:V43"/>
+    <mergeCell ref="Z43:AE43"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="T19:AE19"/>
+    <mergeCell ref="U28:AE28"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="P17:V17"/>
+    <mergeCell ref="Z17:AE17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="Q18:AE18"/>
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="U3:AE3"/>
     <mergeCell ref="U4:AE4"/>
@@ -1931,25 +2036,25 @@
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="X6:AA6"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:R14"/>
-    <mergeCell ref="S14:X14"/>
     <mergeCell ref="Y14:AE14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:R15"/>
-    <mergeCell ref="S15:X15"/>
     <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="U28:AE28"/>
+    <mergeCell ref="D14:S14"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="D41:S41"/>
+    <mergeCell ref="T41:X41"/>
     <mergeCell ref="U29:AE29"/>
-    <mergeCell ref="I31:U31"/>
-    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="U30:AE30"/>
+    <mergeCell ref="I32:U32"/>
     <mergeCell ref="B29:T29"/>
-    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="B30:T30"/>
+    <mergeCell ref="X32:AA32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.35" top="0.35" bottom="0.35" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="26" max="30" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>